--- a/biology/Botanique/William_Ernest_Castle/William_Ernest_Castle.xlsx
+++ b/biology/Botanique/William_Ernest_Castle/William_Ernest_Castle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Ernest Castle (25 octobre 1867-3 juin 1962) est un généticien américain.
 Il est né dans une ferme de l'Ohio, et a manifesté très tôt un vif intérêt pour l'histoire naturelle. Il est diplômé en 1889 de l'université Denison, dans l'Ohio, et est devenu professeur de latin à l'université d'Ottawa, à Ottawa, dans le Kansas, où il publie pour la première fois ses travaux sur les plantes à fleurs de la région. Après trois ans d'enseignement, il abandonne le latin pour la botanique.
